--- a/data/raw/01b_edited-species7_location-independent-final-fix.xlsx
+++ b/data/raw/01b_edited-species7_location-independent-final-fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0FC8B8C-DA1F-45DF-B36F-CDFE598B7A0F}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C5FBA66-63F4-46E4-8C13-AF211E8A2818}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <author>tc={5B1E393E-188A-4FCD-87DD-803EDEB5A732}</author>
   </authors>
   <commentList>
-    <comment ref="B160" authorId="0" shapeId="0" xr:uid="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
+    <comment ref="B159" authorId="0" shapeId="0" xr:uid="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -35,7 +35,7 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B161" authorId="1" shapeId="0" xr:uid="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+    <comment ref="B160" authorId="1" shapeId="0" xr:uid="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="600">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -347,12 +347,6 @@
   </si>
   <si>
     <t>Southwest pit has 1 BAMU and 4 small ARPUs. Northwest pit has 2 medium and 2 small ARPUs and 1 dreid up SECO. There are a few more small to medium sized ARPUs throughout</t>
-  </si>
-  <si>
-    <t>ARSPP</t>
-  </si>
-  <si>
-    <t>Aristida spp.</t>
   </si>
   <si>
     <t>ARTE3</t>
@@ -2799,10 +2793,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B160" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
+  <threadedComment ref="B159" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="B161" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+  <threadedComment ref="B160" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
   <threadedComment ref="B389" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
@@ -2817,12 +2811,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
@@ -2872,13 +2866,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2915,10 +2909,10 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -2955,10 +2949,10 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -3015,10 +3009,10 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -3032,13 +3026,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" t="s">
         <v>492</v>
-      </c>
-      <c r="B11" t="s">
-        <v>493</v>
-      </c>
-      <c r="C11" t="s">
-        <v>494</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -3052,13 +3046,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -3095,10 +3089,10 @@
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -3115,10 +3109,10 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -3132,13 +3126,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C16" t="s">
         <v>557</v>
-      </c>
-      <c r="B16" t="s">
-        <v>558</v>
-      </c>
-      <c r="C16" t="s">
-        <v>559</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -3595,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -3655,10 +3649,10 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -3675,10 +3669,10 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C43" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -3824,7 +3818,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -3847,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3864,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -3881,10 +3875,10 @@
         <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -3892,16 +3886,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -3912,13 +3906,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -3927,18 +3921,18 @@
         <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -3947,7 +3941,7 @@
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3981,13 +3975,13 @@
         <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -4001,13 +3995,13 @@
         <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -4044,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -4052,39 +4046,39 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -4112,13 +4106,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -4144,21 +4138,21 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -4167,18 +4161,18 @@
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -4192,13 +4186,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
         <v>148</v>
-      </c>
-      <c r="B69" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" t="s">
-        <v>150</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -4212,13 +4206,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -4232,13 +4226,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -4252,62 +4246,62 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -4344,10 +4338,10 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -4384,7 +4378,7 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -4392,13 +4386,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -4412,19 +4406,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -4432,19 +4426,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -4461,13 +4455,13 @@
         <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -4481,13 +4475,13 @@
         <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -4501,7 +4495,7 @@
         <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>41</v>
@@ -4521,13 +4515,13 @@
         <v>181</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
         <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -4584,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -4601,10 +4595,10 @@
         <v>189</v>
       </c>
       <c r="D89" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -4621,7 +4615,7 @@
         <v>191</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>41</v>
@@ -4641,10 +4635,10 @@
         <v>193</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
@@ -4664,7 +4658,7 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -4684,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -4724,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -4744,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
@@ -4764,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
@@ -4772,19 +4766,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -4801,10 +4795,10 @@
         <v>210</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -4821,13 +4815,13 @@
         <v>212</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
         <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4847,7 +4841,7 @@
         <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4944,7 +4938,7 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -4952,33 +4946,33 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="C107" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -4992,13 +4986,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -5015,10 +5009,10 @@
         <v>75</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C110" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -5032,13 +5026,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B111" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -5055,13 +5049,13 @@
         <v>76</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="C112" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="D112" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
@@ -5075,36 +5069,36 @@
         <v>76</v>
       </c>
       <c r="B113" t="s">
-        <v>279</v>
+        <v>529</v>
       </c>
       <c r="C113" t="s">
-        <v>280</v>
+        <v>530</v>
       </c>
       <c r="D113" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>531</v>
+        <v>225</v>
       </c>
       <c r="C114" t="s">
-        <v>532</v>
+        <v>226</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -5184,7 +5178,7 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
@@ -5204,7 +5198,7 @@
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
@@ -5224,7 +5218,7 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
@@ -5264,7 +5258,7 @@
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
@@ -5284,44 +5278,44 @@
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D124" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C125" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E125" t="s">
         <v>25</v>
@@ -5341,10 +5335,10 @@
         <v>248</v>
       </c>
       <c r="D126" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
@@ -5361,10 +5355,10 @@
         <v>250</v>
       </c>
       <c r="D127" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
@@ -5387,7 +5381,7 @@
         <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -5404,10 +5398,10 @@
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -5417,8 +5411,8 @@
       <c r="B130" t="s">
         <v>255</v>
       </c>
-      <c r="C130" t="s">
-        <v>256</v>
+      <c r="C130" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -5432,22 +5426,22 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>600</v>
+        <v>258</v>
+      </c>
+      <c r="C131" t="s">
+        <v>259</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -5455,10 +5449,10 @@
         <v>260</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -5472,13 +5466,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D133" t="s">
         <v>3</v>
@@ -5495,10 +5489,10 @@
         <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C134" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -5512,13 +5506,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -5532,13 +5526,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -5552,13 +5546,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" t="s">
         <v>267</v>
-      </c>
-      <c r="B137" t="s">
-        <v>268</v>
-      </c>
-      <c r="C137" t="s">
-        <v>269</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -5575,10 +5569,10 @@
         <v>268</v>
       </c>
       <c r="B138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -5592,13 +5586,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" t="s">
         <v>270</v>
-      </c>
-      <c r="B139" t="s">
-        <v>268</v>
-      </c>
-      <c r="C139" t="s">
-        <v>269</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -5627,7 +5621,7 @@
         <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -5644,10 +5638,10 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -5661,7 +5655,7 @@
         <v>276</v>
       </c>
       <c r="D142" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E142" t="s">
         <v>41</v>
@@ -5681,13 +5675,13 @@
         <v>278</v>
       </c>
       <c r="D143" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -5701,13 +5695,13 @@
         <v>280</v>
       </c>
       <c r="D144" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -5744,7 +5738,7 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
         <v>13</v>
@@ -5764,7 +5758,7 @@
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F147" t="s">
         <v>13</v>
@@ -5804,10 +5798,10 @@
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -5821,13 +5815,13 @@
         <v>292</v>
       </c>
       <c r="D150" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E150" t="s">
         <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -5841,13 +5835,13 @@
         <v>294</v>
       </c>
       <c r="D151" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -5884,7 +5878,7 @@
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
         <v>13</v>
@@ -5901,13 +5895,13 @@
         <v>300</v>
       </c>
       <c r="D154" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E154" t="s">
         <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -5921,13 +5915,13 @@
         <v>302</v>
       </c>
       <c r="D155" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -5941,7 +5935,7 @@
         <v>304</v>
       </c>
       <c r="D156" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E156" t="s">
         <v>41</v>
@@ -5961,10 +5955,10 @@
         <v>306</v>
       </c>
       <c r="D157" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F157" t="s">
         <v>13</v>
@@ -5978,7 +5972,7 @@
         <v>307</v>
       </c>
       <c r="C158" t="s">
-        <v>308</v>
+        <v>599</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
@@ -5992,19 +5986,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C159" t="s">
         <v>309</v>
       </c>
-      <c r="B159" t="s">
-        <v>309</v>
-      </c>
-      <c r="C159" t="s">
-        <v>601</v>
-      </c>
       <c r="D159" t="s">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
         <v>13</v>
@@ -6015,7 +6009,7 @@
         <v>310</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C160" t="s">
         <v>311</v>
@@ -6024,7 +6018,7 @@
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
         <v>13</v>
@@ -6032,19 +6026,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>312</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>595</v>
+        <v>206</v>
+      </c>
+      <c r="B161" t="s">
+        <v>207</v>
       </c>
       <c r="C161" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F161" t="s">
         <v>13</v>
@@ -6052,19 +6046,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="B162" t="s">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="C162" t="s">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
         <v>13</v>
@@ -6072,13 +6066,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="B163" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="C163" t="s">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
@@ -6087,18 +6081,18 @@
         <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C164" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D164" t="s">
         <v>3</v>
@@ -6112,13 +6106,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B165" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C165" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -6132,13 +6126,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B166" t="s">
-        <v>134</v>
+        <v>529</v>
       </c>
       <c r="C166" t="s">
-        <v>135</v>
+        <v>530</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
@@ -6147,24 +6141,24 @@
         <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="B167" t="s">
-        <v>531</v>
+        <v>314</v>
       </c>
       <c r="C167" t="s">
-        <v>532</v>
+        <v>315</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
@@ -6184,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
@@ -6204,7 +6198,7 @@
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
         <v>13</v>
@@ -6224,10 +6218,10 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -6241,13 +6235,13 @@
         <v>323</v>
       </c>
       <c r="D171" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E171" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -6261,7 +6255,7 @@
         <v>325</v>
       </c>
       <c r="D172" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E172" t="s">
         <v>41</v>
@@ -6284,7 +6278,7 @@
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
         <v>13</v>
@@ -6327,7 +6321,7 @@
         <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -6341,13 +6335,13 @@
         <v>333</v>
       </c>
       <c r="D176" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E176" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -6355,16 +6349,16 @@
         <v>334</v>
       </c>
       <c r="B177" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C177" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D177" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
@@ -6372,13 +6366,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>335</v>
+      </c>
+      <c r="B178" t="s">
+        <v>335</v>
+      </c>
+      <c r="C178" t="s">
         <v>336</v>
-      </c>
-      <c r="B178" t="s">
-        <v>337</v>
-      </c>
-      <c r="C178" t="s">
-        <v>338</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
@@ -6401,10 +6395,10 @@
         <v>338</v>
       </c>
       <c r="D179" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E179" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F179" t="s">
         <v>13</v>
@@ -6421,10 +6415,10 @@
         <v>340</v>
       </c>
       <c r="D180" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
@@ -6435,24 +6429,24 @@
         <v>341</v>
       </c>
       <c r="B181" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C181" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B182" t="s">
         <v>344</v>
@@ -6461,7 +6455,7 @@
         <v>345</v>
       </c>
       <c r="D182" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E182" t="s">
         <v>41</v>
@@ -6481,7 +6475,7 @@
         <v>347</v>
       </c>
       <c r="D183" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E183" t="s">
         <v>41</v>
@@ -6504,10 +6498,10 @@
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -6524,7 +6518,7 @@
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
         <v>13</v>
@@ -6584,10 +6578,10 @@
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -6604,10 +6598,10 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -6624,7 +6618,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F190" t="s">
         <v>13</v>
@@ -6652,39 +6646,39 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>364</v>
+        <v>137</v>
       </c>
       <c r="B192" t="s">
-        <v>364</v>
+        <v>132</v>
       </c>
       <c r="C192" t="s">
-        <v>365</v>
+        <v>133</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B193" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C193" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F193" t="s">
         <v>17</v>
@@ -6692,13 +6686,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B194" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C194" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -6712,13 +6706,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B195" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C195" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -6732,13 +6726,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B196" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C196" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -6752,13 +6746,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B197" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C197" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
@@ -6772,13 +6766,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B198" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C198" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
@@ -6792,13 +6786,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B199" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C199" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
@@ -6812,13 +6806,13 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B200" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C200" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
@@ -6832,13 +6826,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B201" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C201" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
@@ -6852,13 +6846,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B202" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C202" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -6872,13 +6866,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B203" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C203" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -6892,13 +6886,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B204" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C204" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
@@ -6912,13 +6906,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B205" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C205" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
@@ -6932,13 +6926,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B206" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C206" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -6952,13 +6946,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B207" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C207" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
@@ -6972,13 +6966,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B208" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C208" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
@@ -6992,13 +6986,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B209" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C209" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
@@ -7012,13 +7006,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B210" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C210" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
@@ -7032,13 +7026,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B211" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C211" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
@@ -7052,13 +7046,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B212" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C212" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
@@ -7072,13 +7066,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B213" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C213" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
@@ -7092,16 +7086,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B214" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C214" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D214" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E214" t="s">
         <v>41</v>
@@ -7112,13 +7106,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B215" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C215" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -7132,13 +7126,13 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B216" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C216" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
@@ -7152,16 +7146,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B217" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C217" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D217" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E217" t="s">
         <v>25</v>
@@ -7172,13 +7166,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>410</v>
+      </c>
+      <c r="B218" t="s">
+        <v>411</v>
+      </c>
+      <c r="C218" t="s">
         <v>412</v>
-      </c>
-      <c r="B218" t="s">
-        <v>413</v>
-      </c>
-      <c r="C218" t="s">
-        <v>414</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -7192,13 +7186,13 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B219" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C219" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
@@ -7212,13 +7206,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B220" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C220" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -7232,13 +7226,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B221" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C221" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
@@ -7252,13 +7246,13 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B222" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C222" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
@@ -7315,10 +7309,10 @@
         <v>18</v>
       </c>
       <c r="B225" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C225" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -7335,10 +7329,10 @@
         <v>18</v>
       </c>
       <c r="B226" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C226" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -7375,10 +7369,10 @@
         <v>77</v>
       </c>
       <c r="B228" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C228" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -7415,10 +7409,10 @@
         <v>78</v>
       </c>
       <c r="B230" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C230" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -7435,10 +7429,10 @@
         <v>78</v>
       </c>
       <c r="B231" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C231" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -7452,16 +7446,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B232" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C232" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D232" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E232" t="s">
         <v>41</v>
@@ -7472,13 +7466,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B233" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C233" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -7492,16 +7486,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B234" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C234" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D234" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E234" t="s">
         <v>25</v>
@@ -7512,13 +7506,13 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B235" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C235" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
@@ -7532,13 +7526,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B236" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C236" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -7552,13 +7546,13 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B237" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C237" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
@@ -7572,16 +7566,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B238" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C238" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D238" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E238" t="s">
         <v>41</v>
@@ -7592,13 +7586,13 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B239" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C239" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
@@ -7612,13 +7606,13 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B240" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C240" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
@@ -7632,13 +7626,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B241" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C241" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -7652,13 +7646,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B242" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C242" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
@@ -7715,10 +7709,10 @@
         <v>19</v>
       </c>
       <c r="B245" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C245" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
@@ -7755,10 +7749,10 @@
         <v>79</v>
       </c>
       <c r="B247" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C247" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
@@ -7795,10 +7789,10 @@
         <v>80</v>
       </c>
       <c r="B249" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C249" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
@@ -7835,10 +7829,10 @@
         <v>81</v>
       </c>
       <c r="B251" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C251" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
@@ -7875,10 +7869,10 @@
         <v>82</v>
       </c>
       <c r="B253" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C253" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
@@ -7895,10 +7889,10 @@
         <v>82</v>
       </c>
       <c r="B254" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C254" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -7935,10 +7929,10 @@
         <v>83</v>
       </c>
       <c r="B256" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C256" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -7975,10 +7969,10 @@
         <v>84</v>
       </c>
       <c r="B258" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C258" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
@@ -7995,10 +7989,10 @@
         <v>84</v>
       </c>
       <c r="B259" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C259" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
@@ -8015,10 +8009,10 @@
         <v>84</v>
       </c>
       <c r="B260" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C260" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
@@ -8035,10 +8029,10 @@
         <v>84</v>
       </c>
       <c r="B261" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C261" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -8052,13 +8046,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B262" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C262" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -8072,13 +8066,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B263" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C263" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -8132,13 +8126,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B266" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C266" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -8172,16 +8166,16 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B268" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C268" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D268" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E268" t="s">
         <v>41</v>
@@ -8192,13 +8186,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B269" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C269" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -8212,13 +8206,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B270" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C270" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -8232,16 +8226,16 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B271" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C271" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D271" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E271" t="s">
         <v>12</v>
@@ -8252,13 +8246,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B272" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C272" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -8272,13 +8266,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B273" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C273" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -8292,13 +8286,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>446</v>
+      </c>
+      <c r="B274" t="s">
+        <v>447</v>
+      </c>
+      <c r="C274" t="s">
         <v>448</v>
-      </c>
-      <c r="B274" t="s">
-        <v>449</v>
-      </c>
-      <c r="C274" t="s">
-        <v>450</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -8312,13 +8306,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B275" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C275" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -8332,13 +8326,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B276" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C276" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -8352,13 +8346,13 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B277" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C277" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
@@ -8372,13 +8366,13 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B278" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C278" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -8392,13 +8386,13 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B279" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C279" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
@@ -8412,13 +8406,13 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B280" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C280" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
@@ -8432,13 +8426,13 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B281" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C281" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
@@ -8452,13 +8446,13 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B282" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C282" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -8472,13 +8466,13 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B283" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C283" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
@@ -8492,13 +8486,13 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B284" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C284" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D284" t="s">
         <v>25</v>
@@ -8512,13 +8506,13 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B285" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C285" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D285" t="s">
         <v>25</v>
@@ -8532,13 +8526,13 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B286" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C286" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
@@ -8552,13 +8546,13 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B287" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C287" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -8572,13 +8566,13 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B288" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C288" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
@@ -8592,13 +8586,13 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B289" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C289" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
@@ -8612,13 +8606,13 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B290" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C290" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -8632,13 +8626,13 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B291" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C291" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -8652,13 +8646,13 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B292" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C292" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
@@ -8672,13 +8666,13 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B293" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C293" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D293" t="s">
         <v>25</v>
@@ -8692,13 +8686,13 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B294" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C294" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -8712,13 +8706,13 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B295" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C295" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -8795,10 +8789,10 @@
         <v>85</v>
       </c>
       <c r="B299" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C299" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -8812,13 +8806,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B300" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C300" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -8855,10 +8849,10 @@
         <v>86</v>
       </c>
       <c r="B302" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C302" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
@@ -8875,10 +8869,10 @@
         <v>86</v>
       </c>
       <c r="B303" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C303" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -8895,10 +8889,10 @@
         <v>86</v>
       </c>
       <c r="B304" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C304" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
@@ -8932,13 +8926,13 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B306" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C306" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
@@ -8952,13 +8946,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B307" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C307" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -8972,13 +8966,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B308" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C308" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -9015,10 +9009,10 @@
         <v>87</v>
       </c>
       <c r="B310" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C310" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
@@ -9035,10 +9029,10 @@
         <v>87</v>
       </c>
       <c r="B311" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C311" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -9052,13 +9046,13 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B312" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C312" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -9072,13 +9066,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B313" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C313" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
@@ -9092,13 +9086,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B314" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C314" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
@@ -9112,13 +9106,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B315" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C315" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
@@ -9132,13 +9126,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B316" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C316" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -9152,13 +9146,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B317" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C317" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -9172,13 +9166,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B318" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C318" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
@@ -9192,13 +9186,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B319" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C319" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
@@ -9212,13 +9206,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B320" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C320" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
@@ -9232,13 +9226,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B321" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C321" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -9252,16 +9246,16 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
+        <v>499</v>
+      </c>
+      <c r="B322" t="s">
+        <v>499</v>
+      </c>
+      <c r="C322" t="s">
+        <v>500</v>
+      </c>
+      <c r="D322" t="s">
         <v>501</v>
-      </c>
-      <c r="B322" t="s">
-        <v>501</v>
-      </c>
-      <c r="C322" t="s">
-        <v>502</v>
-      </c>
-      <c r="D322" t="s">
-        <v>503</v>
       </c>
       <c r="E322" t="s">
         <v>12</v>
@@ -9272,13 +9266,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B323" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C323" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -9292,13 +9286,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B324" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C324" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -9312,13 +9306,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B325" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C325" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
@@ -9332,13 +9326,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B326" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C326" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -9352,13 +9346,13 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>506</v>
+      </c>
+      <c r="B327" t="s">
+        <v>507</v>
+      </c>
+      <c r="C327" t="s">
         <v>508</v>
-      </c>
-      <c r="B327" t="s">
-        <v>509</v>
-      </c>
-      <c r="C327" t="s">
-        <v>510</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -9372,13 +9366,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B328" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C328" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -9392,13 +9386,13 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B329" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C329" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -9412,13 +9406,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
+        <v>561</v>
+      </c>
+      <c r="B330" t="s">
+        <v>562</v>
+      </c>
+      <c r="C330" t="s">
         <v>563</v>
-      </c>
-      <c r="B330" t="s">
-        <v>564</v>
-      </c>
-      <c r="C330" t="s">
-        <v>565</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -9432,13 +9426,13 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B331" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C331" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
@@ -9452,13 +9446,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B332" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C332" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
@@ -9472,13 +9466,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>513</v>
+      </c>
+      <c r="B333" t="s">
+        <v>514</v>
+      </c>
+      <c r="C333" t="s">
         <v>515</v>
-      </c>
-      <c r="B333" t="s">
-        <v>516</v>
-      </c>
-      <c r="C333" t="s">
-        <v>517</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -9492,13 +9486,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B334" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C334" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -9512,16 +9506,16 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
+        <v>516</v>
+      </c>
+      <c r="B335" t="s">
+        <v>517</v>
+      </c>
+      <c r="C335" t="s">
         <v>518</v>
       </c>
-      <c r="B335" t="s">
-        <v>519</v>
-      </c>
-      <c r="C335" t="s">
-        <v>520</v>
-      </c>
       <c r="D335" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E335" t="s">
         <v>41</v>
@@ -9532,16 +9526,16 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B336" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C336" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D336" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E336" t="s">
         <v>41</v>
@@ -9552,16 +9546,16 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B337" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C337" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D337" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E337" t="s">
         <v>41</v>
@@ -9572,13 +9566,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B338" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C338" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -9592,13 +9586,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B339" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C339" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D339" t="s">
         <v>25</v>
@@ -9612,13 +9606,13 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B340" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C340" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
@@ -9632,13 +9626,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B341" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C341" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
@@ -9652,13 +9646,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B342" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C342" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -9672,13 +9666,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B343" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C343" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D343" t="s">
         <v>3</v>
@@ -9692,16 +9686,16 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B344" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C344" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D344" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E344" t="s">
         <v>25</v>
@@ -9712,16 +9706,16 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B345" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C345" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D345" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E345" t="s">
         <v>41</v>
@@ -9732,16 +9726,16 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B346" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C346" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D346" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E346" t="s">
         <v>41</v>
@@ -9752,13 +9746,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B347" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C347" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
@@ -9772,16 +9766,16 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B348" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C348" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D348" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E348" t="s">
         <v>41</v>
@@ -9792,13 +9786,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B349" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C349" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
@@ -9812,13 +9806,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B350" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C350" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
@@ -9855,10 +9849,10 @@
         <v>88</v>
       </c>
       <c r="B352" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C352" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
@@ -9875,10 +9869,10 @@
         <v>88</v>
       </c>
       <c r="B353" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C353" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
@@ -9895,10 +9889,10 @@
         <v>88</v>
       </c>
       <c r="B354" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C354" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
@@ -9935,10 +9929,10 @@
         <v>89</v>
       </c>
       <c r="B356" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C356" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D356" t="s">
         <v>3</v>
@@ -9975,10 +9969,10 @@
         <v>90</v>
       </c>
       <c r="B358" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C358" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D358" t="s">
         <v>3</v>
@@ -10015,10 +10009,10 @@
         <v>91</v>
       </c>
       <c r="B360" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C360" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D360" t="s">
         <v>3</v>
@@ -10055,10 +10049,10 @@
         <v>92</v>
       </c>
       <c r="B362" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C362" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
@@ -10115,10 +10109,10 @@
         <v>94</v>
       </c>
       <c r="B365" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C365" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D365" t="s">
         <v>3</v>
@@ -10132,13 +10126,13 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B366" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C366" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D366" t="s">
         <v>3</v>
@@ -10172,16 +10166,16 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B368" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C368" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D368" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E368" t="s">
         <v>41</v>
@@ -10192,13 +10186,13 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B369" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C369" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D369" t="s">
         <v>3</v>
@@ -10235,10 +10229,10 @@
         <v>96</v>
       </c>
       <c r="B371" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C371" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
@@ -10255,10 +10249,10 @@
         <v>96</v>
       </c>
       <c r="B372" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C372" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -10272,13 +10266,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B373" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C373" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -10292,13 +10286,13 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B374" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C374" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -10312,13 +10306,13 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
+        <v>550</v>
+      </c>
+      <c r="B375" t="s">
+        <v>551</v>
+      </c>
+      <c r="C375" t="s">
         <v>552</v>
-      </c>
-      <c r="B375" t="s">
-        <v>553</v>
-      </c>
-      <c r="C375" t="s">
-        <v>554</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
@@ -10332,13 +10326,13 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B376" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C376" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -10352,13 +10346,13 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B377" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C377" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
@@ -10372,13 +10366,13 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B378" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C378" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -10392,13 +10386,13 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B379" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C379" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D379" t="s">
         <v>3</v>
@@ -10412,13 +10406,13 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B380" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C380" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -10432,13 +10426,13 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B381" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C381" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -10452,13 +10446,13 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B382" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C382" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -10472,13 +10466,13 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B383" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C383" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
@@ -10492,13 +10486,13 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B384" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C384" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -10512,13 +10506,13 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B385" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C385" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
@@ -10532,13 +10526,13 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B386" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C386" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -10552,13 +10546,13 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B387" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C387" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
@@ -10572,16 +10566,16 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B388" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C388" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D388" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E388" t="s">
         <v>41</v>
@@ -10592,13 +10586,13 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C389" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D389" t="s">
         <v>3</v>
@@ -10612,13 +10606,13 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B390" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C390" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
@@ -10632,13 +10626,13 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B391" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C391" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -10652,13 +10646,13 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B392" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C392" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
@@ -10672,13 +10666,13 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B393" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C393" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -10692,13 +10686,13 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B394" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C394" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -10712,13 +10706,13 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B395" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C395" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D395" t="s">
         <v>3</v>
